--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84588.31368742025</v>
+        <v>15511146.77601247</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84588.31368742025</v>
+        <v>15511146.77601247</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1268.511449288232</v>
+        <v>79498.93561260393</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1268.511449288232</v>
+        <v>79498.93561260393</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959469666.6060311</v>
+        <v>39757308.2715356</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8597.357059995215</v>
+        <v>981343.9359971673</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15930.36540456986</v>
+        <v>1767129.603944729</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23263.37374914452</v>
+        <v>2552915.271892287</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30596.38209371896</v>
+        <v>3338700.939839873</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37929.39043828968</v>
+        <v>4124486.607788017</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44824.43524628437</v>
+        <v>4888541.829622994</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51924.48426289004</v>
+        <v>5674327.497570847</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>59024.53327949595</v>
+        <v>6460113.165518679</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66124.58229610301</v>
+        <v>7245898.833466347</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73224.63131271333</v>
+        <v>8031684.501413953</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>79704.93485073817</v>
+        <v>8712957.75101752</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>86795.85568108819</v>
+        <v>9498743.418965111</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>93913.12251896864</v>
+        <v>10284529.0869127</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>101000.6229156825</v>
+        <v>11070314.75486029</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>108080.0480058789</v>
+        <v>11856100.42280788</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>400.0000000000552</v>
@@ -27055,16 +27055,16 @@
         <v>9.999999999742498</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>399.9999999996814</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>10.00000000031821</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>346</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
